--- a/data/america-do-sul/copa-sul-americana/2024.xlsx
+++ b/data/america-do-sul/copa-sul-americana/2024.xlsx
@@ -547,8 +547,16 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
       <c r="J2" t="n">
         <v>45000</v>
       </c>
@@ -609,10 +617,22 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gonzalez F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>61000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38283</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>31/10/2024</t>
@@ -667,10 +687,22 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Benitez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>47090</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29589</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>30/10/2024</t>
@@ -865,10 +897,22 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alveal F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K7" t="n">
+        <v>52974</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>26/09/2024</t>
@@ -1207,9 +1251,19 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>44164</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -1405,10 +1459,22 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K15" t="n">
+        <v>58323</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>22/08/2024</t>
@@ -1541,10 +1607,22 @@
       <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>César Benítez (Par)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40296</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>22/08/2024</t>
@@ -1599,10 +1677,22 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Estadio Hernán Ramírez Villegas (Pereira)</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>30297</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9384</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>21/08/2024</t>
@@ -1657,10 +1747,22 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>47090</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5899</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>21/08/2024</t>
@@ -1715,10 +1817,22 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>60326</v>
+      </c>
+      <c r="K20" t="n">
+        <v>50135</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>21/08/2024</t>
@@ -1773,7 +1887,11 @@
       <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Neo Química Arena (São Paulo)</t>
@@ -1841,8 +1959,16 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Benitez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
       <c r="J22" t="n">
         <v>61000</v>
       </c>
@@ -2041,10 +2167,22 @@
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ramirez M. (Arg)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Estadio Tigo La Huerta (Assunção)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5463</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>15/08/2024</t>
@@ -2099,10 +2237,22 @@
       <c r="G26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Benitez J. (Par)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K26" t="n">
+        <v>18662</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>14/08/2024</t>
@@ -2157,11 +2307,7 @@
       <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Aragon A. (Ecu)</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>Estádio Nacional Julio Martínez Prádanos (Santiago)</t>
@@ -2367,10 +2513,22 @@
       <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Perez R. B. (Per)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>23423</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1992</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>13/08/2024</t>
@@ -2495,10 +2653,22 @@
       <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Alveal F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>42372</v>
+      </c>
+      <c r="K32" t="n">
+        <v>28196</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>25/07/2024</t>
@@ -2623,10 +2793,22 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K34" t="n">
+        <v>46943</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>24/07/2024</t>
@@ -2821,10 +3003,22 @@
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>50600</v>
+      </c>
+      <c r="K37" t="n">
+        <v>31646</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>23/07/2024</t>
@@ -2953,10 +3147,22 @@
       <c r="G39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>45000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12702</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>18/07/2024</t>
@@ -3081,9 +3287,19 @@
       <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Perez R. B. (Per)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Estádio Municipal de Concepción (Concepción)</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>30448</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -3209,10 +3425,22 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alveal F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8083</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>17/07/2024</t>
@@ -3337,10 +3565,22 @@
       <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Estadio Gigante de Arroyito (Rosário)</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>46955</v>
+      </c>
+      <c r="K45" t="n">
+        <v>21907</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>16/07/2024</t>
@@ -3535,7 +3775,11 @@
       <c r="G48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>De Armas M. (Uru)</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Estádio IV Centenário (Tarija)</t>
@@ -3671,10 +3915,22 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Aleman C. (Bol)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Estadio Ester Roa (Concepción)</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>30448</v>
+      </c>
+      <c r="K50" t="n">
+        <v>197</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>30/05/2024</t>
@@ -3729,7 +3985,11 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rey Hilfer L. (Arg)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Ligga Arena (Curitiba)</t>
@@ -3795,10 +4055,22 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Vergara M. (Chi)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>60235</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1174</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>30/05/2024</t>
@@ -3853,10 +4125,22 @@
       <c r="G53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44603</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>29/05/2024</t>
@@ -3911,10 +4195,22 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2463</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>29/05/2024</t>
@@ -4109,10 +4405,22 @@
       <c r="G57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>47090</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2905</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>29/05/2024</t>
@@ -4237,9 +4545,19 @@
       <c r="G59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Cajas A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Estadio Francisco Sánchez Rumoroso (Coquimbo)</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>18750</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -4295,10 +4613,22 @@
       <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Ordonez E. (Per)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Estádio Jocay (Manta)</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>704</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -4493,10 +4823,22 @@
       <c r="G63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Cabero J. (Chi)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>26000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5000</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -4551,10 +4893,22 @@
       <c r="G64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Perez R. B. (Per)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K64" t="n">
+        <v>40353</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>28/05/2024</t>
@@ -4609,9 +4963,19 @@
       <c r="G65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Espinoza F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>35258</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -4667,9 +5031,19 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mendez Chavez I. N. (Bol)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>61927</v>
+      </c>
       <c r="K66" t="n">
         <v>17712</v>
       </c>
@@ -5007,10 +5381,22 @@
       <c r="G71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lara J. (Chi)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Arena Pantanal (Cuiabá)</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>44000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2273</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>15/05/2024</t>
@@ -5065,10 +5451,22 @@
       <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>42372</v>
+      </c>
+      <c r="K72" t="n">
+        <v>22926</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>15/05/2024</t>
@@ -5123,10 +5521,14 @@
       <c r="G73" t="n">
         <v>0</v>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Espinoza M. (Per)</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Córdoba)</t>
+          <t>Estádio Julio Cesar Villagra (Córdoba)</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -5257,10 +5659,22 @@
       <c r="G75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Salazar B. L. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Estádio Víctor Agustín Ugarte (Potosí)</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>35000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1389</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>14/05/2024</t>
@@ -5315,10 +5729,22 @@
       <c r="G76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Alveal F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K76" t="n">
+        <v>40049</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>14/05/2024</t>
@@ -5373,10 +5799,22 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Alarcon J. (Per)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>44164</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1741</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>14/05/2024</t>
@@ -5431,10 +5869,22 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6000</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>14/05/2024</t>
@@ -5697,10 +6147,22 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>15010</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4850</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>09/05/2024</t>
@@ -5825,10 +6287,22 @@
       <c r="G84" t="n">
         <v>2</v>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>45000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>14861</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>08/05/2024</t>
@@ -5884,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Arena Pantanal (Cuiabá)</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>44000</v>
+      </c>
       <c r="K85" t="n">
         <v>3145</v>
       </c>
@@ -5943,10 +6423,22 @@
       <c r="G86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Cajas A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Estádio Víctor Agustín Ugarte (Potosí)</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>35000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1401</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>08/05/2024</t>
@@ -6001,10 +6493,22 @@
       <c r="G87" t="n">
         <v>5</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Salazar B. L. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Estádio Brígido Iriarte (Caracas)</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>784</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>08/05/2024</t>
@@ -6059,7 +6563,11 @@
       <c r="G88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Herrera Y. (Ven)</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>Estadio Defensores del Chaco (Assunção)</t>
@@ -6333,10 +6841,22 @@
       <c r="G92" t="n">
         <v>5</v>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>P. C. Zanovelli (Bra)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Estadio Mansiche (Trujillo)</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>25036</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3599</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>07/05/2024</t>
@@ -6461,7 +6981,11 @@
       <c r="G94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>Estadio Centenario (Montevidéu)</t>
@@ -6527,10 +7051,22 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Espinoza M. (Per)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Estádio Jocay (Manta)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>8524</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>25/04/2024</t>
@@ -6585,10 +7121,22 @@
       <c r="G96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>40943</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9407</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>25/04/2024</t>
@@ -6643,8 +7191,16 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Estádio Municipal de El Alto (El Alto)</t>
+        </is>
+      </c>
       <c r="J97" t="n">
         <v>22000</v>
       </c>
@@ -6705,10 +7261,22 @@
       <c r="G98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>60326</v>
+      </c>
+      <c r="K98" t="n">
+        <v>53428</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>25/04/2024</t>
@@ -7389,7 +7957,11 @@
       <c r="G108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Aragon A. (Ecu)</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>Estadio Inca Garcilaso de la Vega (Cusco)</t>
@@ -8013,10 +8585,22 @@
       <c r="G117" t="n">
         <v>0</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>61000</v>
+      </c>
+      <c r="K117" t="n">
+        <v>19826</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>10/04/2024</t>
@@ -8071,8 +8655,16 @@
       <c r="G118" t="n">
         <v>0</v>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
       <c r="J118" t="n">
         <v>50600</v>
       </c>
@@ -8343,8 +8935,16 @@
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Mendez Chavez I. N. (Bol)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
       <c r="J122" t="n">
         <v>42372</v>
       </c>
@@ -8475,10 +9075,14 @@
       <c r="G124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Buenos Aires)</t>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -8611,7 +9215,11 @@
       <c r="G126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>Neo Química Arena (São Paulo)</t>
@@ -8815,10 +9423,14 @@
       <c r="G129" t="n">
         <v>2</v>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Assunção)</t>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -8879,10 +9491,22 @@
       <c r="G130" t="n">
         <v>0</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>35258</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3092</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>04/04/2024</t>
@@ -9077,7 +9701,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Chi)</t>
+          <t>Maza P. (Chi)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9285,10 +9909,22 @@
       <c r="G136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Arena Pantanal (Cuiabá)</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>44000</v>
+      </c>
+      <c r="K136" t="n">
+        <v>5250</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>03/04/2024</t>
@@ -9553,8 +10189,16 @@
       <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Hinestroza Romana J. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
       <c r="J140" t="n">
         <v>60235</v>
       </c>
@@ -9615,10 +10259,22 @@
       <c r="G141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K141" t="n">
+        <v>32756</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>02/04/2024</t>
@@ -9673,10 +10329,22 @@
       <c r="G142" t="n">
         <v>3</v>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Alveal F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>44164</v>
+      </c>
+      <c r="K142" t="n">
+        <v>899</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>02/04/2024</t>
@@ -9712,7 +10380,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/I1aNzCBr-zDzvQEvc.png</t>
+          <t>https://static.flashscore.com/res/image/data/I1aNzCBr-dGIIEbtB.png</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9731,10 +10399,22 @@
       <c r="G143" t="n">
         <v>3</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hinestroza Romana J. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estádio Bellavista (Ambato)</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>16467</v>
+      </c>
+      <c r="K143" t="n">
+        <v>9190</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>07/03/2024</t>
@@ -9789,10 +10469,22 @@
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>44164</v>
+      </c>
+      <c r="K144" t="n">
+        <v>18746</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>07/03/2024</t>
@@ -10131,10 +10823,22 @@
       <c r="G149" t="n">
         <v>5</v>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Vergara M. (Chi)</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Estádio Banco Guayaquil (Quito)</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2046</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>06/03/2024</t>
@@ -10261,7 +10965,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Par)</t>
+          <t>César Benítez (Par)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10543,10 +11247,22 @@
       <c r="G155" t="n">
         <v>2</v>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Mendez Chavez I. N. (Bol)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Estádio Polideportivo Misael Delgado (Valencia)</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>10400</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1126</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>05/03/2024</t>
@@ -10679,7 +11395,11 @@
       <c r="G157" t="n">
         <v>0</v>
       </c>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr">
         <is>
           <t>Estádio IV Centenário (Tarija)</t>
@@ -10728,7 +11448,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
